--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_9_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_9_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>758054.7261261942</v>
+        <v>720558.0811115926</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11362143.45310926</v>
+        <v>11672620.63342788</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6226372.310333779</v>
+        <v>5820847.292160626</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9553062.007491177</v>
+        <v>9706494.474469392</v>
       </c>
     </row>
     <row r="11">
@@ -664,13 +664,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>260.0557655002663</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>412.9169039459368</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>252.3878373039392</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -755,10 +755,10 @@
         <v>136.0669836643703</v>
       </c>
       <c r="H3" t="n">
-        <v>74.8126360634417</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -791,7 +791,7 @@
         <v>147.9721212459916</v>
       </c>
       <c r="T3" t="n">
-        <v>195.0194028815133</v>
+        <v>151.308777724879</v>
       </c>
       <c r="U3" t="n">
         <v>225.8573996139459</v>
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>150.2886193881554</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>129.2224443473097</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>267.8676713940296</v>
+        <v>412.2877386950442</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>94.2401475588522</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>140.3157839734244</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>66.59764887010788</v>
       </c>
     </row>
     <row r="6">
@@ -989,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>131.8735822530035</v>
+        <v>135.7303505775365</v>
       </c>
       <c r="H6" t="n">
-        <v>99.90681807664345</v>
+        <v>96.65565115906504</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>33.8555903183376</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>147.9721212459916</v>
+        <v>141.7193093041457</v>
       </c>
       <c r="T6" t="n">
-        <v>195.0194028815133</v>
+        <v>193.6625353078282</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8352527003384</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>87.76117160147844</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1104,22 +1104,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>205.3658819001186</v>
+        <v>200.4475243713016</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>160.4431638215633</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>193.1994278308467</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>304.3483021816485</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1226,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.3343964518635</v>
+        <v>135.3222619078506</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269626</v>
+        <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>19.80516901555393</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838588</v>
+        <v>134.1392412509879</v>
       </c>
       <c r="T9" t="n">
-        <v>192.0665623188214</v>
+        <v>192.01765159098</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8084047615432</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>85.4556421029896</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>53.66229649325845</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,22 +1344,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1375,16 +1375,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>100.5751131451063</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>220.4467562824252</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1423,16 +1423,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>135.3343964518635</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>92.83156789269626</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>20.22295923705015</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
-        <v>134.3646350838588</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
-        <v>192.0665623188214</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8092030868072</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249713</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>23.94563726208598</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>356.9373595174936</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1621,13 +1621,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>282.389401890516</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>135.3343964518635</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>92.83156789269626</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>20.22295923705012</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
-        <v>134.3646350838588</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
-        <v>192.0665623188214</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8092030868072</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1773,16 +1773,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>18.26879610204004</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>61.18421556648286</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>194.6624603617375</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>220.7486959972119</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2271541212006</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>281.4356747313008</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>33.43460157532866</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249713</v>
       </c>
       <c r="C19" t="n">
-        <v>60.49300690011571</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>129.4829183512786</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>210.0950343963917</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2098,7 +2098,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2250,16 +2250,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>100.336171018217</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>97.28002421814141</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2329,16 +2329,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>219.18346852123</v>
+        <v>370.5396079476442</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2417,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>90.41948680756569</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>192.8335951560904</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2563,19 +2563,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>223.758033974756</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2620,10 +2620,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>93.91244618182625</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>155.8922282799051</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2727,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>34.98723076369722</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2794,22 +2794,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>229.7965692041367</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>172.731163047564</v>
       </c>
     </row>
     <row r="30">
@@ -2891,7 +2891,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2958,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>105.3266517214976</v>
+        <v>40.63040322758447</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3037,16 +3037,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -3079,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>245.4782705995536</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>126.5388824951718</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3192,16 +3192,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>79.49505480544863</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>129.8723895268713</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3277,13 +3277,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>300.4879207856026</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>188.219639431212</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>74.75769145492396</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>28.20584125154443</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3520,7 +3520,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>24.26938334575169</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>168.1158122680967</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>74.7576914549238</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>6.38006817584838</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3745,16 +3745,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>85.17289288835083</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>153.4696656457188</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>36.15999212057531</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3957,13 +3957,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>142.6955872305736</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3985,19 +3985,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>36.06002841357684</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>126.5388824951718</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>77.49903169749537</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,22 +4185,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>14.20188851094954</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>588.0275389314648</v>
+        <v>1142.55613329041</v>
       </c>
       <c r="C2" t="n">
-        <v>588.0275389314648</v>
+        <v>1142.55613329041</v>
       </c>
       <c r="D2" t="n">
-        <v>588.0275389314648</v>
+        <v>879.8735418759998</v>
       </c>
       <c r="E2" t="n">
-        <v>588.0275389314648</v>
+        <v>879.8735418759998</v>
       </c>
       <c r="F2" t="n">
-        <v>588.0275389314648</v>
+        <v>468.8876370863923</v>
       </c>
       <c r="G2" t="n">
-        <v>170.9397571678923</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="H2" t="n">
-        <v>170.9397571678923</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J2" t="n">
-        <v>72.4810365613864</v>
+        <v>240.4397543365561</v>
       </c>
       <c r="K2" t="n">
-        <v>155.0441911359788</v>
+        <v>643.9068673566015</v>
       </c>
       <c r="L2" t="n">
-        <v>707.8574493821779</v>
+        <v>1196.720125602801</v>
       </c>
       <c r="M2" t="n">
-        <v>1339.57526036549</v>
+        <v>1383.419538428208</v>
       </c>
       <c r="N2" t="n">
-        <v>1966.882928425336</v>
+        <v>1577.753751320191</v>
       </c>
       <c r="O2" t="n">
-        <v>2416.620883129034</v>
+        <v>2124.914956087268</v>
       </c>
       <c r="P2" t="n">
-        <v>2527.35520837856</v>
+        <v>2344.816805366086</v>
       </c>
       <c r="Q2" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S2" t="n">
-        <v>2406.124290896983</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="T2" t="n">
-        <v>2191.324429164695</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="U2" t="n">
-        <v>1937.632725909846</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="V2" t="n">
-        <v>1606.569838566275</v>
+        <v>2258.929878797416</v>
       </c>
       <c r="W2" t="n">
-        <v>1351.632629168357</v>
+        <v>1906.161223527302</v>
       </c>
       <c r="X2" t="n">
-        <v>978.1668709072766</v>
+        <v>1532.695465266222</v>
       </c>
       <c r="Y2" t="n">
-        <v>588.0275389314648</v>
+        <v>1142.55613329041</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>893.4159553857316</v>
+        <v>965.2215397494255</v>
       </c>
       <c r="C3" t="n">
-        <v>718.9629261046047</v>
+        <v>790.7685104682985</v>
       </c>
       <c r="D3" t="n">
-        <v>570.0285164433534</v>
+        <v>641.8341008070472</v>
       </c>
       <c r="E3" t="n">
-        <v>410.7910614378979</v>
+        <v>482.5966458015918</v>
       </c>
       <c r="F3" t="n">
-        <v>264.2565034647829</v>
+        <v>336.0620878284767</v>
       </c>
       <c r="G3" t="n">
-        <v>126.8151058240048</v>
+        <v>198.6206901876986</v>
       </c>
       <c r="H3" t="n">
-        <v>51.24678656800311</v>
+        <v>97.70471233250325</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="K3" t="n">
-        <v>118.8546062313602</v>
+        <v>119.4076749861768</v>
       </c>
       <c r="L3" t="n">
-        <v>623.2161460974787</v>
+        <v>623.7692148522954</v>
       </c>
       <c r="M3" t="n">
-        <v>1257.395129876517</v>
+        <v>1264.3145643194</v>
       </c>
       <c r="N3" t="n">
-        <v>1881.476750918157</v>
+        <v>1905.337773939294</v>
       </c>
       <c r="O3" t="n">
-        <v>2430.912759670879</v>
+        <v>2454.773782692017</v>
       </c>
       <c r="P3" t="n">
-        <v>2539.602387198178</v>
+        <v>2567.255824939009</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="R3" t="n">
-        <v>2541.227428802342</v>
+        <v>2568.880866543173</v>
       </c>
       <c r="S3" t="n">
-        <v>2391.760639664977</v>
+        <v>2419.414077405808</v>
       </c>
       <c r="T3" t="n">
-        <v>2194.771343825065</v>
+        <v>2266.576928188759</v>
       </c>
       <c r="U3" t="n">
-        <v>1966.632556336231</v>
+        <v>2038.438140699924</v>
       </c>
       <c r="V3" t="n">
-        <v>1731.480448104488</v>
+        <v>1803.286032468182</v>
       </c>
       <c r="W3" t="n">
-        <v>1477.243091376286</v>
+        <v>1549.04867573998</v>
       </c>
       <c r="X3" t="n">
-        <v>1269.391591170754</v>
+        <v>1341.197175534447</v>
       </c>
       <c r="Y3" t="n">
-        <v>1061.6312924058</v>
+        <v>1133.436876769493</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>518.2127024906389</v>
+        <v>203.6065415734817</v>
       </c>
       <c r="C4" t="n">
-        <v>349.2765195627319</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="D4" t="n">
-        <v>199.1598801503962</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="E4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="K4" t="n">
-        <v>152.2947161636129</v>
+        <v>152.8477849184295</v>
       </c>
       <c r="L4" t="n">
-        <v>337.1277110644313</v>
+        <v>337.680779819248</v>
       </c>
       <c r="M4" t="n">
-        <v>542.3973117836692</v>
+        <v>542.9503805384859</v>
       </c>
       <c r="N4" t="n">
-        <v>748.2206766197735</v>
+        <v>748.7737453745901</v>
       </c>
       <c r="O4" t="n">
-        <v>922.3155720083723</v>
+        <v>922.868640763189</v>
       </c>
       <c r="P4" t="n">
-        <v>1047.763148606988</v>
+        <v>1048.316217361805</v>
       </c>
       <c r="Q4" t="n">
-        <v>1051.181468027348</v>
+        <v>1051.734536782164</v>
       </c>
       <c r="R4" t="n">
-        <v>1051.181468027348</v>
+        <v>921.2565755015671</v>
       </c>
       <c r="S4" t="n">
-        <v>1051.181468027348</v>
+        <v>713.8162907539725</v>
       </c>
       <c r="T4" t="n">
-        <v>1051.181468027348</v>
+        <v>713.8162907539725</v>
       </c>
       <c r="U4" t="n">
-        <v>1051.181468027348</v>
+        <v>713.8162907539725</v>
       </c>
       <c r="V4" t="n">
-        <v>1051.181468027348</v>
+        <v>713.8162907539725</v>
       </c>
       <c r="W4" t="n">
-        <v>1051.181468027348</v>
+        <v>424.3991207170118</v>
       </c>
       <c r="X4" t="n">
-        <v>920.6537464644088</v>
+        <v>424.3991207170118</v>
       </c>
       <c r="Y4" t="n">
-        <v>699.8611673208786</v>
+        <v>203.6065415734817</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1101.768613746537</v>
+        <v>1676.460653017616</v>
       </c>
       <c r="C5" t="n">
-        <v>732.8060968061254</v>
+        <v>1307.498136077205</v>
       </c>
       <c r="D5" t="n">
-        <v>732.8060968061254</v>
+        <v>949.2324374704542</v>
       </c>
       <c r="E5" t="n">
-        <v>732.8060968061254</v>
+        <v>563.44418487221</v>
       </c>
       <c r="F5" t="n">
-        <v>321.8201920165179</v>
+        <v>563.44418487221</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800311</v>
+        <v>146.9919235640846</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>146.9919235640846</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J5" t="n">
-        <v>239.8866855817394</v>
+        <v>125.8997233870219</v>
       </c>
       <c r="K5" t="n">
-        <v>434.6131205227167</v>
+        <v>488.6685928117981</v>
       </c>
       <c r="L5" t="n">
-        <v>987.4263787689159</v>
+        <v>726.2913740299875</v>
       </c>
       <c r="M5" t="n">
-        <v>1619.144189752228</v>
+        <v>1022.361940587588</v>
       </c>
       <c r="N5" t="n">
-        <v>2246.451857812074</v>
+        <v>1327.83704682317</v>
       </c>
       <c r="O5" t="n">
-        <v>2416.620883129034</v>
+        <v>1968.860256443064</v>
       </c>
       <c r="P5" t="n">
-        <v>2527.35520837856</v>
+        <v>2487.745304821933</v>
       </c>
       <c r="Q5" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="V5" t="n">
-        <v>2231.276441056585</v>
+        <v>2117.196763672745</v>
       </c>
       <c r="W5" t="n">
-        <v>1878.507785786471</v>
+        <v>2117.196763672745</v>
       </c>
       <c r="X5" t="n">
-        <v>1878.507785786471</v>
+        <v>1743.731005411665</v>
       </c>
       <c r="Y5" t="n">
-        <v>1488.368453810659</v>
+        <v>1676.460653017616</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>914.5278549835448</v>
+        <v>949.8902083093635</v>
       </c>
       <c r="C6" t="n">
-        <v>740.0748257024178</v>
+        <v>775.4371790282365</v>
       </c>
       <c r="D6" t="n">
-        <v>591.1404160411665</v>
+        <v>626.5027693669854</v>
       </c>
       <c r="E6" t="n">
-        <v>431.902961035711</v>
+        <v>467.2653143615298</v>
       </c>
       <c r="F6" t="n">
-        <v>285.368403062596</v>
+        <v>320.7307563884149</v>
       </c>
       <c r="G6" t="n">
-        <v>152.1627644231985</v>
+        <v>183.6293921686811</v>
       </c>
       <c r="H6" t="n">
-        <v>51.24678656800311</v>
+        <v>85.9974213009385</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J6" t="n">
-        <v>51.24678656800311</v>
+        <v>201.9455071369546</v>
       </c>
       <c r="K6" t="n">
-        <v>118.8546062313602</v>
+        <v>413.9668958230138</v>
       </c>
       <c r="L6" t="n">
-        <v>623.2161460974787</v>
+        <v>623.5577690758429</v>
       </c>
       <c r="M6" t="n">
-        <v>1257.395129876517</v>
+        <v>1264.580978695737</v>
       </c>
       <c r="N6" t="n">
-        <v>1566.198609964619</v>
+        <v>1905.604188315631</v>
       </c>
       <c r="O6" t="n">
-        <v>2115.634618717342</v>
+        <v>2144.409140067088</v>
       </c>
       <c r="P6" t="n">
-        <v>2539.602387198178</v>
+        <v>2316.738101020796</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="R6" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S6" t="n">
-        <v>2412.87253926279</v>
+        <v>2446.841948662051</v>
       </c>
       <c r="T6" t="n">
-        <v>2215.883243422878</v>
+        <v>2251.223226128891</v>
       </c>
       <c r="U6" t="n">
-        <v>1987.744455934044</v>
+        <v>2023.106809259863</v>
       </c>
       <c r="V6" t="n">
-        <v>1752.592347702301</v>
+        <v>1787.95470102812</v>
       </c>
       <c r="W6" t="n">
-        <v>1498.3549909741</v>
+        <v>1533.717344299918</v>
       </c>
       <c r="X6" t="n">
-        <v>1290.503490768567</v>
+        <v>1325.865844094385</v>
       </c>
       <c r="Y6" t="n">
-        <v>1082.743192003613</v>
+        <v>1118.105545329432</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>51.24678656800311</v>
+        <v>220.7360382507266</v>
       </c>
       <c r="C7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="D7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="E7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J7" t="n">
-        <v>51.24678656800311</v>
+        <v>54.03452733018363</v>
       </c>
       <c r="K7" t="n">
-        <v>152.2947161636129</v>
+        <v>187.5436166159861</v>
       </c>
       <c r="L7" t="n">
-        <v>337.1277110644313</v>
+        <v>413.9157199341292</v>
       </c>
       <c r="M7" t="n">
-        <v>542.3973117836692</v>
+        <v>662.9824862666685</v>
       </c>
       <c r="N7" t="n">
-        <v>748.2206766197735</v>
+        <v>911.5616180092684</v>
       </c>
       <c r="O7" t="n">
-        <v>922.3155720083723</v>
+        <v>1125.148384357422</v>
       </c>
       <c r="P7" t="n">
-        <v>1047.763148606988</v>
+        <v>1284.388078993466</v>
       </c>
       <c r="Q7" t="n">
-        <v>1051.181468027348</v>
+        <v>1311.202309361115</v>
       </c>
       <c r="R7" t="n">
-        <v>1051.181468027348</v>
+        <v>1311.202309361115</v>
       </c>
       <c r="S7" t="n">
-        <v>843.7411832797532</v>
+        <v>1108.730062521417</v>
       </c>
       <c r="T7" t="n">
-        <v>843.7411832797532</v>
+        <v>1108.730062521417</v>
       </c>
       <c r="U7" t="n">
-        <v>843.7411832797532</v>
+        <v>819.5934355135189</v>
       </c>
       <c r="V7" t="n">
-        <v>843.7411832797532</v>
+        <v>819.5934355135189</v>
       </c>
       <c r="W7" t="n">
-        <v>681.6773814397902</v>
+        <v>530.1762654765582</v>
       </c>
       <c r="X7" t="n">
-        <v>453.6878305417729</v>
+        <v>530.1762654765582</v>
       </c>
       <c r="Y7" t="n">
-        <v>232.8952513982428</v>
+        <v>309.3836863330281</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1412.134398099142</v>
+        <v>1206.839711317422</v>
       </c>
       <c r="C8" t="n">
-        <v>1043.17188115873</v>
+        <v>1206.839711317422</v>
       </c>
       <c r="D8" t="n">
-        <v>1043.17188115873</v>
+        <v>848.5740127106715</v>
       </c>
       <c r="E8" t="n">
-        <v>657.3836285604862</v>
+        <v>462.7857601124273</v>
       </c>
       <c r="F8" t="n">
-        <v>246.3977237708786</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>189.9868871104782</v>
       </c>
       <c r="K8" t="n">
-        <v>442.517185281608</v>
+        <v>447.8319447135514</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872912</v>
+        <v>804.6133007477392</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1233.270741187503</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1673.478115539972</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2075.818195082062</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764996</v>
+        <v>2384.705143645557</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2568.493631507463</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="W8" t="n">
-        <v>2562.339328400155</v>
+        <v>1904.401570749444</v>
       </c>
       <c r="X8" t="n">
-        <v>2188.873570139076</v>
+        <v>1596.979043293234</v>
       </c>
       <c r="Y8" t="n">
-        <v>1798.734238163264</v>
+        <v>1206.839711317422</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3045644835107</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8515352023837</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057915</v>
+        <v>71.80507655065199</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>426.7768722128336</v>
       </c>
       <c r="L9" t="n">
-        <v>932.4978103100998</v>
+        <v>724.0888213291483</v>
       </c>
       <c r="M9" t="n">
-        <v>1295.75982926932</v>
+        <v>1090.394710821474</v>
       </c>
       <c r="N9" t="n">
-        <v>1683.044957866265</v>
+        <v>1480.804272147216</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>2121.82748176711</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2371.304209632129</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.567687002215</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610463172942</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.52116543401</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.369057202267</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131700474065</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.280200268533</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519901503579</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1006.01552520271</v>
+        <v>590.8296604634106</v>
       </c>
       <c r="C10" t="n">
-        <v>837.079342274803</v>
+        <v>421.8934775355037</v>
       </c>
       <c r="D10" t="n">
-        <v>686.9627028624673</v>
+        <v>421.8934775355037</v>
       </c>
       <c r="E10" t="n">
-        <v>539.0496092800742</v>
+        <v>273.9803839531106</v>
       </c>
       <c r="F10" t="n">
-        <v>392.1596617821638</v>
+        <v>273.9803839531106</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>106.004195215</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>77.98108068080552</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>527.5702436225445</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>829.7308018317423</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245823</v>
+        <v>1130.141273750634</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1591.807384634811</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1424.04909569586</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1134.931318706258</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>880.2468305003712</v>
       </c>
       <c r="W10" t="n">
-        <v>1636.446120074497</v>
+        <v>590.8296604634106</v>
       </c>
       <c r="X10" t="n">
-        <v>1408.45656917648</v>
+        <v>590.8296604634106</v>
       </c>
       <c r="Y10" t="n">
-        <v>1187.66399003295</v>
+        <v>590.8296604634106</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1412.134398099142</v>
+        <v>1363.124011696101</v>
       </c>
       <c r="C11" t="n">
-        <v>1043.17188115873</v>
+        <v>994.1614947556898</v>
       </c>
       <c r="D11" t="n">
-        <v>684.9061825519796</v>
+        <v>994.1614947556898</v>
       </c>
       <c r="E11" t="n">
-        <v>684.9061825519796</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F11" t="n">
-        <v>273.920277762372</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G11" t="n">
-        <v>51.2467865680031</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H11" t="n">
-        <v>51.2467865680031</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>51.2467865680031</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>187.5281822362817</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K11" t="n">
-        <v>442.5171852816086</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L11" t="n">
-        <v>795.7553530872917</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1220.470313923562</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>1656.671415230817</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2055.22848474084</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>2360.886721764997</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>2542.25058172385</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>2562.339328400155</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>2562.339328400155</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>2562.339328400155</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U11" t="n">
-        <v>2562.339328400155</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V11" t="n">
-        <v>2562.339328400155</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="W11" t="n">
-        <v>2562.339328400155</v>
+        <v>2513.328941997115</v>
       </c>
       <c r="X11" t="n">
-        <v>2188.873570139075</v>
+        <v>2139.863183736035</v>
       </c>
       <c r="Y11" t="n">
-        <v>1798.734238163263</v>
+        <v>1749.723851760223</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>931.3041410966388</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>756.8511118155118</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>607.9167021542605</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>448.679247148805</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>302.1446891756899</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>165.443278618252</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>71.67401812057901</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>51.2467865680031</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>238.4273302370161</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>423.148951518066</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>717.8525085495377</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
-        <v>1081.114527508758</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.293511287796</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2047.363946463958</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2294.546680296255</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2562.339328400155</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2562.339328400155</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2426.617474780096</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2232.610846175226</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2004.520742047138</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1769.368633815395</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1515.131277087193</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1307.279776881661</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1099.519478116707</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1006.01552520271</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C13" t="n">
-        <v>837.079342274803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D13" t="n">
-        <v>686.9627028624673</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E13" t="n">
-        <v>539.0496092800742</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F13" t="n">
-        <v>392.1596617821638</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G13" t="n">
-        <v>224.1731970904424</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>75.43429895394854</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>51.2467865680031</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>76.71595955312196</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>248.4064713020475</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
-        <v>523.6376499693233</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>824.2194607096585</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
-        <v>1123.088724245823</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
-        <v>1383.126566999034</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P13" t="n">
-        <v>1582.113182171023</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1636.446120074497</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1636.446120074497</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1636.446120074497</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T13" t="n">
-        <v>1636.446120074497</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U13" t="n">
-        <v>1636.446120074497</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V13" t="n">
-        <v>1636.446120074497</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W13" t="n">
-        <v>1636.446120074497</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X13" t="n">
-        <v>1408.45656917648</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y13" t="n">
-        <v>1187.66399003295</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1164.26325471341</v>
+        <v>1628.178203944121</v>
       </c>
       <c r="C14" t="n">
-        <v>795.3007377729979</v>
+        <v>1267.635416552713</v>
       </c>
       <c r="D14" t="n">
-        <v>437.0350391662474</v>
+        <v>909.3697179459625</v>
       </c>
       <c r="E14" t="n">
-        <v>51.24678656800312</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="F14" t="n">
-        <v>51.24678656800312</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G14" t="n">
-        <v>51.24678656800312</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H14" t="n">
-        <v>51.24678656800312</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>51.24678656800312</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>187.5281822362819</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>442.5171852816084</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
-        <v>795.7553530872915</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1220.470313923562</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>1656.671415230817</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2055.22848474084</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>2360.886721764998</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>2542.250581723851</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>2562.339328400156</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>2562.339328400156</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>2562.339328400156</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U14" t="n">
-        <v>2562.339328400156</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V14" t="n">
-        <v>2277.097508308726</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W14" t="n">
-        <v>1924.328853038611</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X14" t="n">
-        <v>1550.863094777531</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y14" t="n">
-        <v>1550.863094777531</v>
+        <v>2014.778044008242</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>931.3041410966385</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C15" t="n">
-        <v>756.8511118155116</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D15" t="n">
-        <v>607.9167021542603</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E15" t="n">
-        <v>448.6792471488048</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F15" t="n">
-        <v>302.1446891756898</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G15" t="n">
-        <v>165.443278618252</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H15" t="n">
-        <v>71.67401812057899</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I15" t="n">
-        <v>51.24678656800312</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>238.4273302370161</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K15" t="n">
-        <v>614.5430248380219</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L15" t="n">
-        <v>909.2465818694938</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M15" t="n">
-        <v>1272.508600828714</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N15" t="n">
-        <v>1659.793729425659</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>1991.864164601821</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2239.046898434118</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
-        <v>2562.339328400155</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R15" t="n">
-        <v>2562.339328400155</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S15" t="n">
-        <v>2426.617474780096</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T15" t="n">
-        <v>2232.610846175226</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U15" t="n">
-        <v>2004.520742047137</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V15" t="n">
-        <v>1769.368633815395</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W15" t="n">
-        <v>1515.131277087193</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X15" t="n">
-        <v>1307.27977688166</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1099.519478116707</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>281.0354892056668</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="C16" t="n">
-        <v>281.0354892056668</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="D16" t="n">
-        <v>281.0354892056668</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="E16" t="n">
-        <v>281.0354892056668</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F16" t="n">
-        <v>281.0354892056668</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G16" t="n">
-        <v>113.0490245139454</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H16" t="n">
-        <v>51.24678656800312</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
-        <v>51.24678656800312</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>76.71595955312202</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>248.4064713020476</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L16" t="n">
-        <v>523.6376499693235</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>824.219460709659</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N16" t="n">
-        <v>1123.088724245823</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O16" t="n">
-        <v>1383.126566999035</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P16" t="n">
-        <v>1582.113182171024</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>1636.446120074498</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1533.86271359008</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>1337.233965749941</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T16" t="n">
-        <v>1114.255484944676</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U16" t="n">
-        <v>825.1371474485143</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V16" t="n">
-        <v>570.4526592426274</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W16" t="n">
-        <v>281.0354892056668</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X16" t="n">
-        <v>281.0354892056668</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y16" t="n">
-        <v>281.0354892056668</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1888.09808975843</v>
+        <v>1845.410930903096</v>
       </c>
       <c r="C17" t="n">
-        <v>1519.135572818019</v>
+        <v>1845.410930903096</v>
       </c>
       <c r="D17" t="n">
-        <v>1160.869874211268</v>
+        <v>1487.145232296346</v>
       </c>
       <c r="E17" t="n">
-        <v>775.0816216130238</v>
+        <v>1101.356979698101</v>
       </c>
       <c r="F17" t="n">
-        <v>364.0957168234162</v>
+        <v>690.3710749084937</v>
       </c>
       <c r="G17" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T17" t="n">
-        <v>3291.833496785607</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U17" t="n">
-        <v>3038.303020059443</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V17" t="n">
-        <v>3038.303020059443</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W17" t="n">
-        <v>3038.303020059443</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="X17" t="n">
-        <v>2664.837261798364</v>
+        <v>2235.550262878908</v>
       </c>
       <c r="Y17" t="n">
-        <v>2274.697929822552</v>
+        <v>1845.410930903096</v>
       </c>
     </row>
     <row r="18">
@@ -5570,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5627,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5636,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>372.8549345700854</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C19" t="n">
-        <v>311.7508871962312</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D19" t="n">
-        <v>311.7508871962312</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E19" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F19" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G19" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H19" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5697,28 +5697,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T19" t="n">
-        <v>1615.697475415547</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U19" t="n">
-        <v>1326.59460854119</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V19" t="n">
-        <v>1071.910120335303</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W19" t="n">
-        <v>782.4929502983425</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X19" t="n">
-        <v>554.5033994003252</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y19" t="n">
-        <v>554.5033994003252</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2345.167438673965</v>
+        <v>1901.535346136983</v>
       </c>
       <c r="C20" t="n">
-        <v>1976.204921733553</v>
+        <v>1532.572829196572</v>
       </c>
       <c r="D20" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E20" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F20" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G20" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H20" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U20" t="n">
-        <v>2866.09759726723</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V20" t="n">
-        <v>2866.09759726723</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W20" t="n">
-        <v>2866.09759726723</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="X20" t="n">
-        <v>2866.09759726723</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="Y20" t="n">
-        <v>2475.958265291418</v>
+        <v>2288.135186201105</v>
       </c>
     </row>
     <row r="21">
@@ -5822,16 +5822,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
         <v>398.4535849031479</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>732.1533772316425</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C22" t="n">
-        <v>563.2171943037356</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D22" t="n">
-        <v>413.1005548913998</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E22" t="n">
-        <v>265.1874613090067</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F22" t="n">
-        <v>265.1874613090067</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G22" t="n">
-        <v>265.1874613090067</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H22" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
         <v>111.634748879119</v>
@@ -5934,28 +5934,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S22" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T22" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U22" t="n">
-        <v>1424.011591242373</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V22" t="n">
-        <v>1424.011591242373</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="W22" t="n">
-        <v>1134.594421205412</v>
+        <v>1348.774511177176</v>
       </c>
       <c r="X22" t="n">
-        <v>1134.594421205412</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y22" t="n">
-        <v>913.8018420618822</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1698.50962791956</v>
+        <v>2006.793820398076</v>
       </c>
       <c r="C23" t="n">
-        <v>1329.547110979148</v>
+        <v>1637.831303457665</v>
       </c>
       <c r="D23" t="n">
-        <v>971.2814123723979</v>
+        <v>1279.565604850914</v>
       </c>
       <c r="E23" t="n">
-        <v>585.4931597741536</v>
+        <v>893.77735225267</v>
       </c>
       <c r="F23" t="n">
-        <v>585.4931597741536</v>
+        <v>482.7914474630624</v>
       </c>
       <c r="G23" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T23" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U23" t="n">
-        <v>2755.806928794325</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="V23" t="n">
-        <v>2424.744041450754</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="W23" t="n">
-        <v>2071.97538618064</v>
+        <v>2766.859418723278</v>
       </c>
       <c r="X23" t="n">
-        <v>1698.50962791956</v>
+        <v>2393.393660462198</v>
       </c>
       <c r="Y23" t="n">
-        <v>1698.50962791956</v>
+        <v>2393.393660462198</v>
       </c>
     </row>
     <row r="24">
@@ -6044,31 +6044,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
         <v>398.4535849031479</v>
@@ -6101,7 +6101,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6110,10 +6110,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>847.3980557622425</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="C25" t="n">
-        <v>678.4618728343356</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="D25" t="n">
-        <v>528.3452334219999</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="E25" t="n">
-        <v>380.4321398396067</v>
+        <v>304.7348788872308</v>
       </c>
       <c r="F25" t="n">
-        <v>380.4321398396067</v>
+        <v>157.8449313893205</v>
       </c>
       <c r="G25" t="n">
-        <v>212.7293032143257</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J25" t="n">
         <v>111.634748879119</v>
@@ -6174,25 +6174,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S25" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T25" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U25" t="n">
-        <v>1732.513138839917</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V25" t="n">
-        <v>1477.82865063403</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W25" t="n">
-        <v>1477.82865063403</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X25" t="n">
-        <v>1249.839099736012</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y25" t="n">
-        <v>1029.046520592482</v>
+        <v>452.6479724696239</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1590.514489367197</v>
+        <v>1887.813801820605</v>
       </c>
       <c r="C26" t="n">
-        <v>1221.551972426786</v>
+        <v>1518.851284880193</v>
       </c>
       <c r="D26" t="n">
-        <v>863.2862738200351</v>
+        <v>1160.585586273443</v>
       </c>
       <c r="E26" t="n">
-        <v>477.498021221791</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F26" t="n">
-        <v>66.5121164321834</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G26" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H26" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J26" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329464</v>
@@ -6250,28 +6250,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T26" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U26" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V26" t="n">
-        <v>2424.744041450753</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W26" t="n">
-        <v>2071.975386180638</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X26" t="n">
-        <v>1977.114329431319</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="Y26" t="n">
-        <v>1977.114329431319</v>
+        <v>1887.813801820605</v>
       </c>
     </row>
     <row r="27">
@@ -6281,43 +6281,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I27" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O27" t="n">
         <v>2096.912393410638</v>
@@ -6338,7 +6338,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V27" t="n">
         <v>1779.608347199865</v>
@@ -6347,10 +6347,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>912.4415581410489</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C28" t="n">
-        <v>754.9746608886195</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D28" t="n">
-        <v>604.8580214762837</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E28" t="n">
-        <v>456.9449278938906</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F28" t="n">
-        <v>310.0549803959802</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G28" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H28" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J28" t="n">
         <v>111.634748879119</v>
@@ -6411,25 +6411,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S28" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T28" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U28" t="n">
-        <v>1638.191681214136</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V28" t="n">
-        <v>1383.507193008249</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="W28" t="n">
-        <v>1094.090022971289</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X28" t="n">
-        <v>1094.090022971289</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y28" t="n">
-        <v>1094.090022971289</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1822.632236038042</v>
+        <v>1137.43386558517</v>
       </c>
       <c r="C29" t="n">
-        <v>1453.669719097631</v>
+        <v>1137.43386558517</v>
       </c>
       <c r="D29" t="n">
-        <v>1095.40402049088</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="E29" t="n">
-        <v>709.6157678926361</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="F29" t="n">
-        <v>298.6298631030285</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G29" t="n">
-        <v>66.5121164321834</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H29" t="n">
         <v>66.5121164321834</v>
@@ -6469,10 +6469,10 @@
         <v>589.2106210810553</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
         <v>2120.555556060171</v>
@@ -6490,25 +6490,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T29" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U29" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V29" t="n">
-        <v>3325.60582160917</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W29" t="n">
-        <v>2972.837166339056</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X29" t="n">
-        <v>2599.371408077976</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y29" t="n">
-        <v>2209.232076102164</v>
+        <v>1524.033705649292</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I30" t="n">
         <v>66.5121164321834</v>
@@ -6575,7 +6575,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V30" t="n">
         <v>1779.608347199865</v>
@@ -6584,10 +6584,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>777.020896318616</v>
+        <v>553.2677753977071</v>
       </c>
       <c r="C31" t="n">
-        <v>608.0847133907091</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="D31" t="n">
-        <v>457.9680739783734</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="E31" t="n">
-        <v>310.0549803959802</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F31" t="n">
-        <v>310.0549803959802</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G31" t="n">
-        <v>310.0549803959802</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H31" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I31" t="n">
         <v>66.5121164321834</v>
@@ -6654,19 +6654,19 @@
         <v>1513.842048484845</v>
       </c>
       <c r="U31" t="n">
-        <v>1513.842048484845</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V31" t="n">
-        <v>1513.842048484845</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="W31" t="n">
-        <v>1407.451491190403</v>
+        <v>1183.698370269494</v>
       </c>
       <c r="X31" t="n">
-        <v>1179.461940292386</v>
+        <v>955.7088193714769</v>
       </c>
       <c r="Y31" t="n">
-        <v>958.6693611488557</v>
+        <v>734.9162402279468</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1133.32083113111</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C32" t="n">
-        <v>764.3583141906979</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D32" t="n">
-        <v>406.0926155839475</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E32" t="n">
-        <v>406.0926155839475</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F32" t="n">
-        <v>406.0926155839475</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G32" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H32" t="n">
         <v>108.5090151927147</v>
@@ -6700,13 +6700,13 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M32" t="n">
         <v>1573.776739001388</v>
@@ -6715,7 +6715,7 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
         <v>3018.302393296687</v>
@@ -6727,25 +6727,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T32" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U32" t="n">
-        <v>2967.357304045808</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V32" t="n">
-        <v>2636.294416702237</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W32" t="n">
-        <v>2283.525761432123</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X32" t="n">
-        <v>1910.060003171043</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y32" t="n">
-        <v>1519.920671195231</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D33" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
         <v>176.021302392778</v>
@@ -6779,13 +6779,13 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K33" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L33" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
@@ -6812,7 +6812,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V33" t="n">
         <v>1779.608347199865</v>
@@ -6821,10 +6821,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1861.970701620181</v>
+        <v>553.2677753977071</v>
       </c>
       <c r="C34" t="n">
-        <v>1693.034518692274</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="D34" t="n">
-        <v>1612.736483535255</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E34" t="n">
-        <v>1464.823389952862</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F34" t="n">
-        <v>1464.823389952862</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G34" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H34" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I34" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J34" t="n">
-        <v>1509.946022399798</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K34" t="n">
-        <v>1713.933205348674</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L34" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M34" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N34" t="n">
-        <v>2716.058426102584</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O34" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P34" t="n">
-        <v>3247.995525456657</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q34" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R34" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S34" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T34" t="n">
-        <v>3325.605821609171</v>
+        <v>1796.110316243168</v>
       </c>
       <c r="U34" t="n">
-        <v>3036.502954734815</v>
+        <v>1507.007449368812</v>
       </c>
       <c r="V34" t="n">
-        <v>2781.818466528928</v>
+        <v>1252.322961162925</v>
       </c>
       <c r="W34" t="n">
-        <v>2492.401296491968</v>
+        <v>962.9057911259641</v>
       </c>
       <c r="X34" t="n">
-        <v>2264.41174559395</v>
+        <v>734.9162402279468</v>
       </c>
       <c r="Y34" t="n">
-        <v>2043.61916645042</v>
+        <v>734.9162402279468</v>
       </c>
     </row>
     <row r="35">
@@ -6913,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1822.632236038043</v>
+        <v>1822.632236038044</v>
       </c>
       <c r="C35" t="n">
         <v>1453.669719097632</v>
       </c>
       <c r="D35" t="n">
-        <v>1095.404020490881</v>
+        <v>1095.404020490882</v>
       </c>
       <c r="E35" t="n">
-        <v>709.615767892637</v>
+        <v>709.6157678926375</v>
       </c>
       <c r="F35" t="n">
-        <v>406.0926155839475</v>
+        <v>298.6298631030299</v>
       </c>
       <c r="G35" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H35" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
@@ -6982,7 +6982,7 @@
         <v>2599.371408077977</v>
       </c>
       <c r="Y35" t="n">
-        <v>2209.232076102165</v>
+        <v>2209.232076102166</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>936.5735814686079</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>846.0716871064755</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>827.0643955080134</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>920.7416649986308</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O36" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S36" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T36" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W36" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1464.823389952862</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="C37" t="n">
-        <v>1464.823389952862</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="D37" t="n">
-        <v>1464.823389952862</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E37" t="n">
-        <v>1464.823389952862</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F37" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G37" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H37" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K37" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L37" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N37" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O37" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P37" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>3235.775364366699</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>3044.089480193525</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T37" t="n">
-        <v>2822.322864763051</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U37" t="n">
-        <v>2533.219997888695</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V37" t="n">
-        <v>2278.535509682808</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W37" t="n">
-        <v>1989.118339645847</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X37" t="n">
-        <v>1761.12878874783</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y37" t="n">
-        <v>1540.3362096043</v>
+        <v>423.5412774992673</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1661.138951213862</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C38" t="n">
-        <v>1661.138951213862</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D38" t="n">
-        <v>1302.873252607111</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E38" t="n">
-        <v>917.0850000088669</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F38" t="n">
-        <v>506.0990952192594</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G38" t="n">
-        <v>91.02664506425583</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H38" t="n">
         <v>66.51211643218342</v>
@@ -7201,25 +7201,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T38" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U38" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V38" t="n">
-        <v>2424.744041450753</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W38" t="n">
-        <v>2424.744041450753</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X38" t="n">
-        <v>2051.278283189673</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y38" t="n">
-        <v>1661.138951213862</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D39" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
         <v>66.51211643218342</v>
@@ -7259,7 +7259,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7286,7 +7286,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7295,10 +7295,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1640.204086189706</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C40" t="n">
-        <v>1471.267903261799</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D40" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E40" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F40" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G40" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H40" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K40" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L40" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N40" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O40" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P40" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>3325.605821609171</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S40" t="n">
-        <v>3325.605821609171</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T40" t="n">
-        <v>3103.839206178697</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U40" t="n">
-        <v>2814.73633930434</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V40" t="n">
-        <v>2560.051851098453</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W40" t="n">
-        <v>2270.634681061493</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X40" t="n">
-        <v>2042.645130163475</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y40" t="n">
-        <v>1821.852551019945</v>
+        <v>142.0249360836216</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>921.7704558796252</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C41" t="n">
-        <v>552.8079389392135</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D41" t="n">
-        <v>194.542240332463</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E41" t="n">
-        <v>108.5090151927147</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F41" t="n">
-        <v>108.5090151927147</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G41" t="n">
         <v>108.5090151927147</v>
@@ -7408,19 +7408,19 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060171</v>
@@ -7435,28 +7435,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U41" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V41" t="n">
-        <v>2424.744041450753</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W41" t="n">
-        <v>2071.975386180638</v>
+        <v>2839.523069976995</v>
       </c>
       <c r="X41" t="n">
-        <v>1698.509627919559</v>
+        <v>2466.057311715915</v>
       </c>
       <c r="Y41" t="n">
-        <v>1308.370295943747</v>
+        <v>2075.917979740103</v>
       </c>
     </row>
     <row r="42">
@@ -7487,7 +7487,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228007</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1091.613680441807</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C43" t="n">
-        <v>922.6774975139006</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D43" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E43" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F43" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G43" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H43" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
@@ -7593,28 +7593,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088493</v>
+        <v>1890.769303522255</v>
       </c>
       <c r="S43" t="n">
-        <v>1927.294548088493</v>
+        <v>1699.083419349081</v>
       </c>
       <c r="T43" t="n">
-        <v>1927.294548088493</v>
+        <v>1699.083419349081</v>
       </c>
       <c r="U43" t="n">
-        <v>1638.191681214136</v>
+        <v>1409.980552474725</v>
       </c>
       <c r="V43" t="n">
-        <v>1638.191681214136</v>
+        <v>1155.296064268838</v>
       </c>
       <c r="W43" t="n">
-        <v>1638.191681214136</v>
+        <v>865.8788942318776</v>
       </c>
       <c r="X43" t="n">
-        <v>1494.054724415577</v>
+        <v>637.8893433338602</v>
       </c>
       <c r="Y43" t="n">
-        <v>1273.262145272047</v>
+        <v>417.0967641903301</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1127.748203495403</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C44" t="n">
-        <v>758.7856865549918</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D44" t="n">
-        <v>400.5199879482413</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E44" t="n">
-        <v>400.5199879482413</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F44" t="n">
-        <v>400.5199879482413</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G44" t="n">
-        <v>400.5199879482413</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H44" t="n">
-        <v>102.9363875570085</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T44" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U44" t="n">
-        <v>2961.784676410102</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V44" t="n">
-        <v>2630.721789066531</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W44" t="n">
-        <v>2277.953133796417</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X44" t="n">
-        <v>1904.487375535337</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y44" t="n">
-        <v>1514.348043559525</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1072.569853459643</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C46" t="n">
-        <v>903.6336705317362</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D46" t="n">
-        <v>753.5170311194005</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E46" t="n">
-        <v>605.6039375370074</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F46" t="n">
-        <v>458.713990039097</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G46" t="n">
-        <v>291.0111534138159</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7939666316737</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
         <v>111.634748879119</v>
@@ -7833,25 +7833,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S46" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T46" t="n">
-        <v>1837.464090846021</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U46" t="n">
-        <v>1837.464090846021</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V46" t="n">
-        <v>1582.779602640134</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W46" t="n">
-        <v>1293.362432603173</v>
+        <v>865.8788942318776</v>
       </c>
       <c r="X46" t="n">
-        <v>1293.362432603173</v>
+        <v>637.8893433338602</v>
       </c>
       <c r="Y46" t="n">
-        <v>1072.569853459643</v>
+        <v>417.0967641903301</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>282.3928579664021</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>110.2702262922129</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8066,16 +8066,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>459.2743913378118</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>429.7221003929035</v>
+        <v>446.8348161285146</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>3.830721939084484</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>113.2962427943282</v>
+        <v>203.003896323013</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>369.603020508346</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>65.71641987298244</v>
+        <v>26.19461818159832</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>91.51343072301174</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>459.2743913378118</v>
+        <v>380.8926041660694</v>
       </c>
       <c r="N6" t="n">
-        <v>111.2593317529664</v>
+        <v>359.2821607945085</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8473,7 +8473,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>8.810729923425242e-13</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>342.9044714621887</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8546,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>186.5911984019047</v>
+        <v>309.1863928326899</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>74.6548192771991</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.18437503906578</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8780,7 +8780,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>154.0169020165196</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>20.93778120154991</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>193.3273467878341</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>20.93778120154985</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -22552,13 +22552,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>94.6272761204167</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22567,7 +22567,7 @@
         <v>315.0408840752156</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,19 +22597,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>96.85313141347379</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22643,10 +22643,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>25.09418201320175</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>45.44580843958667</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22679,7 +22679,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>43.71062515663428</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -22704,16 +22704,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>16.95820171047245</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -22752,10 +22752,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>223.3729047207587</v>
@@ -22767,10 +22767,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>96.48721104172748</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22783,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>145.0492325519072</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>315.0408840752156</v>
+        <v>308.5974454495114</v>
       </c>
       <c r="I5" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.651863114966</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1547862223006</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>319.6402897859457</v>
       </c>
     </row>
     <row r="6">
@@ -22877,13 +22877,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>4.19340141136675</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>45.44580843958667</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,7 +22910,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.90078060183509</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -22941,10 +22941,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>92.07080858045886</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -22956,16 +22956,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.9207765545704</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H7" t="n">
-        <v>152.7120966692326</v>
+        <v>150.2028876639206</v>
       </c>
       <c r="I7" t="n">
-        <v>123.266557879417</v>
+        <v>114.7793764994864</v>
       </c>
       <c r="J7" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22989,25 +22989,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.1731816677913</v>
+        <v>116.4834600519701</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.3729047207587</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U7" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>126.0798345150277</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -23020,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -23035,13 +23035,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>218.3482749421073</v>
+        <v>411.5250233818693</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,22 +23071,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>65.3827984968205</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23178,28 +23178,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>80.85095794181458</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>93.49876371818851</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,28 +23226,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23263,22 +23263,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>281.3552569271556</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>191.1009464905288</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>301.0185525624054</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>65.70991267247049</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>123.4522153987944</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>16.14213605696602</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>80.8509579418146</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>101.5575724195736</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23497,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>8.335532253513918</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23509,13 +23509,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>301.0185525624054</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>123.4522153987944</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>206.6581849802338</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>45.36285657961889</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>128.1651665445291</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>86.06729358864598</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>104.7965952039006</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23746,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>129.4860509221527</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>170.4833685642915</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23794,7 +23794,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>16.14213605696602</v>
       </c>
       <c r="C19" t="n">
-        <v>106.7538141985121</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23910,7 +23910,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>253.250923312202</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>144.5880072242912</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24138,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>44.41884389610382</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>128.4296311708957</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24217,16 +24217,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>191.7382571322234</v>
+        <v>40.38211770580921</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,16 +24256,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>75.60632145146253</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -24414,25 +24414,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>93.37824304952244</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24451,19 +24451,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>158.1723360975058</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,7 +24496,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24508,10 +24508,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>275.8186544966428</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>11.35459281872278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,25 +24651,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>251.5357675728938</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24682,22 +24682,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>181.1251564493168</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -24730,16 +24730,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>213.5067756084896</v>
       </c>
     </row>
     <row r="30">
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,13 +24894,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>181.1963466150934</v>
+        <v>245.8925951090065</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24925,16 +24925,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,19 +24967,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>5.516901359348338</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>222.7020862222412</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25080,16 +25080,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>69.12041821276372</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25128,7 +25128,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>89.67655974929787</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25165,13 +25165,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>106.3881249561088</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>222.7020862222414</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>105.0742887270133</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>120.4096317666679</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>270.3383810415688</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -25441,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>181.1251564493163</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>105.0742887270135</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>142.235404842364</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25633,16 +25633,16 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>296.757477183911</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
@@ -25678,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>195.7713030716942</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>52.77216054947202</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -25845,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>83.0140681584636</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25873,19 +25873,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>5.516901359349106</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>222.7020862222412</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>18.85338871234272</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,22 +26073,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.3211098256415</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>782270.9104953745</v>
+        <v>787113.8080249227</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>782270.9104953742</v>
+        <v>784837.060101666</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>775766.3066718463</v>
+        <v>778744.9495127755</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>775766.3066718463</v>
+        <v>857982.2431124127</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>775766.3066718463</v>
+        <v>857982.2431124129</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>857982.2431124129</v>
+        <v>857982.2431124127</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>857982.243112413</v>
+        <v>857982.2431124127</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>857982.2431124126</v>
+        <v>857982.2431124129</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>857982.2431124129</v>
+        <v>857982.2431124127</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>857982.2431124129</v>
+        <v>857982.2431124131</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>857982.2431124129</v>
+        <v>857982.243112413</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>857982.2431124129</v>
+        <v>857982.2431124126</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>857982.2431124129</v>
+        <v>857982.243112413</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>292326.4653616189</v>
+        <v>293963.0566446843</v>
       </c>
       <c r="C2" t="n">
-        <v>292326.4653616188</v>
+        <v>300474.9546057422</v>
       </c>
       <c r="D2" t="n">
-        <v>305971.6304943086</v>
+        <v>307240.6166485275</v>
       </c>
       <c r="E2" t="n">
-        <v>305971.6304943087</v>
+        <v>340997.0989709204</v>
       </c>
       <c r="F2" t="n">
-        <v>305971.6304943087</v>
+        <v>340997.0989709205</v>
       </c>
       <c r="G2" t="n">
-        <v>340997.0989709205</v>
+        <v>340997.0989709204</v>
       </c>
       <c r="H2" t="n">
-        <v>340997.0989709206</v>
+        <v>340997.0989709207</v>
       </c>
       <c r="I2" t="n">
         <v>340997.0989709206</v>
@@ -26340,13 +26340,13 @@
         <v>340997.0989709205</v>
       </c>
       <c r="K2" t="n">
+        <v>340997.0989709207</v>
+      </c>
+      <c r="L2" t="n">
+        <v>340997.0989709205</v>
+      </c>
+      <c r="M2" t="n">
         <v>340997.0989709204</v>
-      </c>
-      <c r="L2" t="n">
-        <v>340997.0989709204</v>
-      </c>
-      <c r="M2" t="n">
-        <v>340997.0989709205</v>
       </c>
       <c r="N2" t="n">
         <v>340997.0989709205</v>
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>786555.9961629253</v>
+        <v>788872.8219169304</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>142513.6350285908</v>
       </c>
       <c r="D3" t="n">
-        <v>291685.0095230265</v>
+        <v>162483.5179640547</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>175476.4059383954</v>
       </c>
       <c r="F3" t="n">
-        <v>2.695895773285884e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>173363.8810341906</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>169414.0168260481</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>45829.42896872333</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>45920.21121431068</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51955.28000414307</v>
+        <v>52711.70878817391</v>
       </c>
       <c r="C4" t="n">
-        <v>51955.28000414307</v>
+        <v>34164.65115400255</v>
       </c>
       <c r="D4" t="n">
-        <v>11359.04569987403</v>
+        <v>11168.80134097641</v>
       </c>
       <c r="E4" t="n">
-        <v>11359.04569987402</v>
+        <v>6110.739312017629</v>
       </c>
       <c r="F4" t="n">
-        <v>11359.045699874</v>
+        <v>6110.739312017629</v>
       </c>
       <c r="G4" t="n">
         <v>6110.739312017629</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>85512.93677905218</v>
+        <v>85933.26903271282</v>
       </c>
       <c r="C5" t="n">
-        <v>85512.93677905218</v>
+        <v>89345.07489699082</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>93481.0893615096</v>
       </c>
       <c r="E5" t="n">
-        <v>59310.17243984471</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>59310.17243984473</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
         <v>74306.3405613933</v>
@@ -26490,10 +26490,10 @@
         <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="J5" t="n">
         <v>74306.3405613933</v>
-      </c>
-      <c r="J5" t="n">
-        <v>74306.34056139328</v>
       </c>
       <c r="K5" t="n">
         <v>74306.34056139328</v>
@@ -26508,7 +26508,7 @@
         <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
         <v>74306.3405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-631697.7475845016</v>
+        <v>-639382.6345075056</v>
       </c>
       <c r="C6" t="n">
-        <v>154858.2485784236</v>
+        <v>28949.29700983801</v>
       </c>
       <c r="D6" t="n">
-        <v>-90010.1971684366</v>
+        <v>34943.19456780604</v>
       </c>
       <c r="E6" t="n">
-        <v>235302.41235459</v>
+        <v>81627.42386105303</v>
       </c>
       <c r="F6" t="n">
-        <v>235302.4123545897</v>
+        <v>257103.8297994486</v>
       </c>
       <c r="G6" t="n">
-        <v>87216.138063319</v>
+        <v>257103.8297994485</v>
       </c>
       <c r="H6" t="n">
-        <v>260580.0190975097</v>
+        <v>257103.8297994488</v>
       </c>
       <c r="I6" t="n">
-        <v>260580.0190975097</v>
+        <v>257103.8297994486</v>
       </c>
       <c r="J6" t="n">
-        <v>92974.8412875271</v>
+        <v>87689.81297340045</v>
       </c>
       <c r="K6" t="n">
-        <v>260580.0190975095</v>
+        <v>257103.8297994488</v>
       </c>
       <c r="L6" t="n">
-        <v>260580.0190975095</v>
+        <v>257103.8297994485</v>
       </c>
       <c r="M6" t="n">
-        <v>260580.0190975096</v>
+        <v>211274.4008307251</v>
       </c>
       <c r="N6" t="n">
-        <v>260580.0190975096</v>
+        <v>257103.8297994485</v>
       </c>
       <c r="O6" t="n">
-        <v>214659.807883199</v>
+        <v>257103.8297994485</v>
       </c>
       <c r="P6" t="n">
-        <v>260580.0190975096</v>
+        <v>257103.8297994485</v>
       </c>
     </row>
   </sheetData>
@@ -26740,16 +26740,16 @@
         <v>593.4761003380651</v>
       </c>
       <c r="C3" t="n">
-        <v>593.4761003380651</v>
+        <v>749.9809564976066</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>939.7063906498446</v>
       </c>
       <c r="E3" t="n">
-        <v>934.0648921175391</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>934.0648921175394</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26789,31 +26789,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>647.4981915352466</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>647.4981915352466</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>647.4981915352466</v>
       </c>
       <c r="E4" t="n">
-        <v>640.5848321000387</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>640.584832100039</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>831.4014554022925</v>
@@ -26822,16 +26822,16 @@
         <v>831.4014554022929</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26962,19 +26962,19 @@
         <v>593.4761003380651</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>156.5048561595415</v>
       </c>
       <c r="D3" t="n">
-        <v>340.588791779474</v>
+        <v>189.725434152238</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>150.0703099434537</v>
       </c>
       <c r="F3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>155.7118084757589</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>647.4981915352466</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>183.903263867046</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>190.8166233022539</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000385</v>
+        <v>647.4981915352467</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>183.903263867046</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>190.8166233022538</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>647.4981915352466</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>183.903263867046</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>190.8166233022539</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.38583356919825</v>
+        <v>3.014998820090879</v>
       </c>
       <c r="H5" t="n">
-        <v>24.43391804055158</v>
+        <v>30.87735666625572</v>
       </c>
       <c r="I5" t="n">
-        <v>91.97984867651562</v>
+        <v>116.2357420115537</v>
       </c>
       <c r="J5" t="n">
-        <v>202.4946418937401</v>
+        <v>255.8942561066884</v>
       </c>
       <c r="K5" t="n">
-        <v>303.4869768779021</v>
+        <v>383.5191561611354</v>
       </c>
       <c r="L5" t="n">
-        <v>376.5024309712531</v>
+        <v>475.7894263014917</v>
       </c>
       <c r="M5" t="n">
-        <v>418.9314987074825</v>
+        <v>529.4074115682829</v>
       </c>
       <c r="N5" t="n">
-        <v>425.710248335967</v>
+        <v>537.9737769658661</v>
       </c>
       <c r="O5" t="n">
-        <v>401.9861157822519</v>
+        <v>507.9933824485874</v>
       </c>
       <c r="P5" t="n">
-        <v>343.0858495426701</v>
+        <v>433.5605990775938</v>
       </c>
       <c r="Q5" t="n">
-        <v>257.6431848457577</v>
+        <v>325.5859538330891</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>189.3909196325338</v>
       </c>
       <c r="S5" t="n">
-        <v>54.36718245810517</v>
+        <v>68.70428561282097</v>
       </c>
       <c r="T5" t="n">
-        <v>10.44398644916534</v>
+        <v>13.19815733494783</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1908666855358599</v>
+        <v>0.2411999056072702</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.276533498840366</v>
+        <v>1.613166585674097</v>
       </c>
       <c r="H6" t="n">
-        <v>12.32862615985301</v>
+        <v>15.57979307743141</v>
       </c>
       <c r="I6" t="n">
-        <v>43.95082441182841</v>
+        <v>55.54104253307748</v>
       </c>
       <c r="J6" t="n">
-        <v>120.6044214847383</v>
+        <v>152.4088658859901</v>
       </c>
       <c r="K6" t="n">
-        <v>206.1321659070429</v>
+        <v>260.4910271261546</v>
       </c>
       <c r="L6" t="n">
-        <v>277.1701353512822</v>
+        <v>350.2623325605096</v>
       </c>
       <c r="M6" t="n">
-        <v>323.4444746842454</v>
+        <v>408.7396212911955</v>
       </c>
       <c r="N6" t="n">
-        <v>332.0050874900653</v>
+        <v>419.5577428240715</v>
       </c>
       <c r="O6" t="n">
-        <v>303.7197925947077</v>
+        <v>383.8133674257138</v>
       </c>
       <c r="P6" t="n">
-        <v>243.7619099671574</v>
+        <v>308.0440649433283</v>
       </c>
       <c r="Q6" t="n">
-        <v>162.9483813607457</v>
+        <v>205.91929960289</v>
       </c>
       <c r="R6" t="n">
-        <v>79.25705355080804</v>
+        <v>100.1578341526427</v>
       </c>
       <c r="S6" t="n">
-        <v>23.71104985784626</v>
+        <v>29.96386179969209</v>
       </c>
       <c r="T6" t="n">
-        <v>5.145325813308317</v>
+        <v>6.502193386993398</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08398246702897151</v>
+        <v>0.1061293806364538</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.070202803888314</v>
+        <v>1.352424675651422</v>
       </c>
       <c r="H7" t="n">
-        <v>9.515075838207016</v>
+        <v>12.02428484351901</v>
       </c>
       <c r="I7" t="n">
-        <v>32.18391704784131</v>
+        <v>40.67109842777185</v>
       </c>
       <c r="J7" t="n">
-        <v>75.66333823490379</v>
+        <v>95.6164245685555</v>
       </c>
       <c r="K7" t="n">
-        <v>124.3381075790241</v>
+        <v>157.1271577711379</v>
       </c>
       <c r="L7" t="n">
-        <v>159.1099695889954</v>
+        <v>201.0686649600305</v>
       </c>
       <c r="M7" t="n">
-        <v>167.7591540676927</v>
+        <v>211.9987152932496</v>
       </c>
       <c r="N7" t="n">
-        <v>163.7702163441091</v>
+        <v>206.9578596840036</v>
       </c>
       <c r="O7" t="n">
-        <v>151.2683017714137</v>
+        <v>191.1590805184392</v>
       </c>
       <c r="P7" t="n">
-        <v>129.436164572092</v>
+        <v>163.5696171351501</v>
       </c>
       <c r="Q7" t="n">
-        <v>89.61489115104783</v>
+        <v>113.2471244311386</v>
       </c>
       <c r="R7" t="n">
-        <v>48.12020970937817</v>
+        <v>60.80993132519936</v>
       </c>
       <c r="S7" t="n">
-        <v>18.65071613685361</v>
+        <v>23.56907366567068</v>
       </c>
       <c r="T7" t="n">
-        <v>4.572684707522795</v>
+        <v>5.778541795965164</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0583746983939081</v>
+        <v>0.07376861867189581</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.777714133265704</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.6885148673074</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>320.6287649182603</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>480.5394041793977</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>663.3335468027921</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>636.5023321712724</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>407.9506271086971</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>86.08466081179232</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.53694361837063</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3022171306612563</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.021255255360043</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.59146383586115</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>190.9642958583802</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>326.3883979675031</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>385.9711022274806</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>258.0114603157838</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.5439298528499</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.147077103841575</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1329773194315818</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.694552507729228</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.95981541425716</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>265.6288080979552</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>239.5172944561277</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>204.9484232984512</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>76.19324275662508</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.53142870288117</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.240360714843062</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09243013678523071</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.755034742181059</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>38.45624955336178</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>144.7659768979354</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>318.7038799491899</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>477.6545005857142</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>592.5726450767379</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>659.3512441730003</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>670.0202366342223</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>632.6811099166594</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>539.9786897190644</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>405.5015080147051</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>235.8772011235311</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>85.56785418745096</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>16.43766458389759</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.00912071134716</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>19.4038763438002</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>69.17367361436493</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>189.8178475575841</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>324.4289352178438</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>436.2347404177243</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>509.0653662040588</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>522.5388116762072</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>478.0209264405674</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>383.6539365378625</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>256.462496416876</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>124.741722762414</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>37.31853601997901</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>8.098166376000171</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.684379313654579</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>14.97566335231072</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>50.6538797233577</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
-        <v>119.0856174753787</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>195.6942511682319</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>250.4212663227908</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>264.0341136849627</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>257.7559726067958</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>238.0793597154672</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>203.7180217169137</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>141.0437987097484</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>75.73581895759585</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>29.35413767523478</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>7.196893431069561</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.75503474218106</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>38.45624955336179</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>144.7659768979355</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>318.70387994919</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>477.6545005857144</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>592.5726450767381</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>659.3512441730006</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>670.0202366342226</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>632.6811099166596</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>539.9786897190646</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>405.5015080147052</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>235.8772011235312</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>85.56785418745099</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>16.4376645838976</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.009120711347161</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>19.40387634380021</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>69.17367361436496</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>189.8178475575841</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>324.4289352178439</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>436.2347404177245</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>509.0653662040589</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>522.5388116762073</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>478.0209264405676</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>383.6539365378626</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>256.4624964168761</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>124.7417227624141</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>37.31853601997903</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>8.098166376000174</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.684379313654579</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>14.97566335231072</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>50.65387972335773</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
-        <v>119.0856174753787</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>195.694251168232</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>250.4212663227908</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>264.0341136849628</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>257.7559726067959</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>238.0793597154673</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>203.7180217169137</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>141.0437987097484</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>75.73581895759588</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>29.35413767523479</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>7.196893431069563</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32560,7 +32560,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
         <v>609.6478166837925</v>
@@ -32800,7 +32800,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
         <v>557.708647897025</v>
@@ -33028,7 +33028,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
         <v>508.9565619138796</v>
@@ -33274,7 +33274,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
         <v>557.708647897025</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33748,7 +33748,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
         <v>557.708647897025</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K2" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L2" t="n">
         <v>558.3972305517163</v>
       </c>
       <c r="M2" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N2" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O2" t="n">
-        <v>454.2807623269672</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P2" t="n">
-        <v>111.8528537874005</v>
+        <v>222.1230800796134</v>
       </c>
       <c r="Q2" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34786,16 +34786,16 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000389</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N3" t="n">
-        <v>630.3854757996355</v>
+        <v>647.4981915352466</v>
       </c>
       <c r="O3" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P3" t="n">
-        <v>109.7875025528271</v>
+        <v>113.6182244919116</v>
       </c>
       <c r="Q3" t="n">
         <v>22.96660727472423</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.5453525391276</v>
+        <v>74.84835158000215</v>
       </c>
       <c r="K5" t="n">
-        <v>196.6933686272498</v>
+        <v>366.4332014391679</v>
       </c>
       <c r="L5" t="n">
-        <v>558.3972305517163</v>
+        <v>240.0230113315045</v>
       </c>
       <c r="M5" t="n">
-        <v>638.0987989730422</v>
+        <v>299.0611783410102</v>
       </c>
       <c r="N5" t="n">
-        <v>633.6441091513602</v>
+        <v>308.5607133692752</v>
       </c>
       <c r="O5" t="n">
-        <v>171.8879043605652</v>
+        <v>647.4981915352466</v>
       </c>
       <c r="P5" t="n">
-        <v>111.8528537874005</v>
+        <v>524.126311493807</v>
       </c>
       <c r="Q5" t="n">
-        <v>35.33749497130819</v>
+        <v>103.2802639586396</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>151.6622745597322</v>
       </c>
       <c r="K6" t="n">
-        <v>68.29072693268387</v>
+        <v>214.1630188748073</v>
       </c>
       <c r="L6" t="n">
-        <v>509.4561008748672</v>
+        <v>211.7079527806354</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000389</v>
+        <v>647.4981915352466</v>
       </c>
       <c r="N6" t="n">
-        <v>311.9227071596984</v>
+        <v>647.4981915352466</v>
       </c>
       <c r="O6" t="n">
-        <v>554.9858674269929</v>
+        <v>241.2171229812694</v>
       </c>
       <c r="P6" t="n">
-        <v>428.2502711927643</v>
+        <v>174.0696575289981</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.96660727472423</v>
+        <v>276.0148132527177</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>2.257244451882727</v>
       </c>
       <c r="K7" t="n">
-        <v>102.0686157531412</v>
+        <v>134.857665945255</v>
       </c>
       <c r="L7" t="n">
-        <v>186.6999948493115</v>
+        <v>228.6586902203466</v>
       </c>
       <c r="M7" t="n">
-        <v>207.3430310295333</v>
+        <v>251.5825922550902</v>
       </c>
       <c r="N7" t="n">
-        <v>207.9023887233377</v>
+        <v>251.0900320632322</v>
       </c>
       <c r="O7" t="n">
-        <v>175.8534296854534</v>
+        <v>215.7442084324789</v>
       </c>
       <c r="P7" t="n">
-        <v>126.7147238369855</v>
+        <v>160.8481764000435</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.452847899353443</v>
+        <v>27.0850811794442</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>139.5828603915741</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>260.4495531344172</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>432.9873135755194</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>406.4041207495857</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402565</v>
+        <v>185.6449372342476</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>21.71629760961986</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>188.5469589931441</v>
       </c>
       <c r="L9" t="n">
-        <v>640.5848321000389</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O9" t="n">
-        <v>522.0158803980277</v>
+        <v>647.4981915352466</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>192.6845055069614</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>26.44568217978362</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>174.6066995266583</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>305.2126850597958</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>264.1024223701673</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>202.2269825633447</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>55.73362173643214</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>137.6579754225036</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>257.5646495407337</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>356.8062301067507</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>429.0050109457276</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>440.6071730376314</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>402.5828984949726</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>308.7456939637948</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>183.1958181402556</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>20.29166330939901</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>189.0712562313262</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>186.5874962434848</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>297.6803606378501</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>366.9313322820404</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>640.5848321000387</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>335.424681996123</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>249.6795291235322</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>270.4976243473741</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>25.72643735870592</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>173.424759342349</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>278.0112915831069</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>303.6179906468033</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>301.8881449860244</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>262.6644876295069</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>200.9965809818072</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>54.881755458054</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>137.6579754225037</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>257.5646495407339</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>356.8062301067509</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>429.0050109457279</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>440.6071730376316</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>402.5828984949728</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>308.7456939637951</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>183.1958181402557</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>20.2916633093991</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>189.0712562313263</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>379.914843031319</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>297.6803606378503</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>366.9313322820406</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>391.197099592874</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>335.4246819961231</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>249.6795291235323</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>326.5580100667037</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>25.72643735870597</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>173.4247593423491</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>278.011291583107</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>303.6179906468034</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>301.8881449860245</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>262.664487629507</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>200.9965809818072</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>54.88175545805406</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36208,7 +36208,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
         <v>478.3061046004592</v>
@@ -36448,7 +36448,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
         <v>415.1124034525806</v>
@@ -36676,7 +36676,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
         <v>370.4021821340054</v>
@@ -36922,7 +36922,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
         <v>415.1124034525806</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37396,7 +37396,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
         <v>415.1124034525806</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222434</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
